--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/G/AngVel/f10RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/G/AngVel/f10RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\G\AngVel\f10RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF51B057-09FC-4EFE-AF90-5CA702CDEEF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45D8F09-95B7-440E-9D67-35493C60F22F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="240" windowWidth="15120" windowHeight="8604" xr2:uid="{C12F6283-F78F-4BE4-B272-A7C051475266}"/>
+    <workbookView xWindow="5040" yWindow="240" windowWidth="15120" windowHeight="8604" xr2:uid="{1162820E-F121-4228-938D-E2ECC6946451}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{251CB176-0939-469D-A227-4DCA345C9D7A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5A81968-E63C-43F3-B611-1EA9D4AE1F97}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/G/AngVel/f10RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/G/AngVel/f10RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\G\AngVel\f10RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45D8F09-95B7-440E-9D67-35493C60F22F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28EDE050-9778-4375-B500-9497BDACC711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="240" windowWidth="15120" windowHeight="8604" xr2:uid="{1162820E-F121-4228-938D-E2ECC6946451}"/>
+    <workbookView xWindow="348" yWindow="1092" windowWidth="15120" windowHeight="10788" xr2:uid="{7A9FD6CD-AB65-4202-B8FA-5C7236B57D4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5A81968-E63C-43F3-B611-1EA9D4AE1F97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F952B326-DAE1-45B7-8BE9-47366D3EAF0E}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -410,7 +410,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>0.87813081539746018</v>
+        <v>0.13170462828675669</v>
       </c>
     </row>
   </sheetData>
